--- a/正式/陕西源-编辑.xlsx
+++ b/正式/陕西源-编辑.xlsx
@@ -8253,16 +8253,16 @@
   <sheetPr/>
   <dimension ref="A1:M403"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="7.84615384615385" customWidth="1"/>
-    <col min="2" max="2" width="18.2884615384615" customWidth="1"/>
+    <col min="2" max="2" width="95.7211538461538" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="12" max="12" width="53.7596153846154" customWidth="1"/>
   </cols>
@@ -22024,10 +22024,16 @@
   <dimension ref="A1:M297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="2" max="2" width="54" customWidth="1"/>
+    <col min="8" max="8" width="36.5384615384615" customWidth="1"/>
+    <col min="12" max="12" width="66.3461538461538" customWidth="1"/>
+    <col min="13" max="13" width="61.7019230769231" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -22095,7 +22101,7 @@
       <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="13" t="s">
         <v>783</v>
       </c>
       <c r="M2" t="e">
@@ -30303,6 +30309,7 @@
   <autoFilter ref="A1:M297"/>
   <hyperlinks>
     <hyperlink ref="L15" r:id="rId1" display="http://jyt.shaanxi.gov.cn"/>
+    <hyperlink ref="L2" r:id="rId2" display="http://edu.xa.gov.cn/xwzx/tzgg/1.html"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
